--- a/medicine/Enfance/Jan_Fearnley/Jan_Fearnley.xlsx
+++ b/medicine/Enfance/Jan_Fearnley/Jan_Fearnley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Fearnley, née en 1965 à South Shields, est une autrice et illustratrice anglaise spécialisée dans les ouvrages de jeunesse. Elle habite à Kingston upon Thames.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie l'art graphique à Newcastle. 
 Elle devient institutrice. Travailler avec des enfants l'inspire et elle commence à écrire.
@@ -544,7 +558,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses albums traduits en français sont édités chez Gründ.
 </t>
@@ -575,7 +591,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Récompense du livre des enfants de the Stockport pour Les crêpes de Monsieur loup
 Récompense d'or pour l'illustration de l'AOI (Association des illustrateurs) pour Monsieur Loup et les trois ours
